--- a/src/PMS/static/inventory/鑰匙複製申請單_template.xlsx
+++ b/src/PMS/static/inventory/鑰匙複製申請單_template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eagleburgmannbiz-my.sharepoint.com/personal/chenchen_liang_tw_eagleburgmann_com/Documents/桌面/電子化表單/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chenchen.liang\OneDrive - EagleBurgmann Japan Co. Ltd\桌面\電子化表單\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,9 +14,6 @@
   <sheets>
     <sheet name="鑰匙複製申請單" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <definedNames>
     <definedName name="__B1" localSheetId="0">#REF!</definedName>
     <definedName name="__B1">#REF!</definedName>
@@ -43,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
   <si>
     <t>台灣伊格爾博格曼股份有限公司</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -144,12 +141,16 @@
     <t>鑰匙複製申請單</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>(照片)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -209,8 +210,16 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -229,8 +238,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -288,44 +303,113 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -349,15 +433,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>3495675</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1533525</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="866775" cy="237530"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="圖片 1"/>
+        <xdr:cNvPr id="3" name="圖片 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -376,7 +460,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4933950" y="28575"/>
+          <a:off x="7362825" y="19050"/>
           <a:ext cx="866775" cy="237530"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -387,45 +471,6 @@
     <xdr:clientData/>
   </xdr:oneCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="常備文具清單"/>
-      <sheetName val="盤點List"/>
-      <sheetName val="Costco文具比較"/>
-      <sheetName val="Costco文具"/>
-      <sheetName val="2023申請清單0612"/>
-      <sheetName val="類別標籤"/>
-      <sheetName val="好市多購買清單"/>
-      <sheetName val="文具申請(原始)0815"/>
-      <sheetName val="文具申請0815"/>
-      <sheetName val="制服申請"/>
-      <sheetName val="庶務申請"/>
-      <sheetName val="鑰匙申請"/>
-      <sheetName val="印刷品申請"/>
-      <sheetName val="刻章申請"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -691,131 +736,152 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.875" style="9" customWidth="1"/>
-    <col min="2" max="2" width="9" style="2"/>
-    <col min="3" max="3" width="57.625" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="9.875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="57.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="32.75" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-    </row>
-    <row r="2" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-    </row>
-    <row r="3" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="13"/>
+    </row>
+    <row r="3" spans="1:4" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-    </row>
-    <row r="4" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="8"/>
-    </row>
-    <row r="5" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="15"/>
+    </row>
+    <row r="5" spans="1:4" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8"/>
-    </row>
-    <row r="6" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="B5" s="4"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="16"/>
+    </row>
+    <row r="6" spans="1:4" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="8"/>
-    </row>
-    <row r="7" spans="1:3" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="B6" s="4"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="16"/>
+    </row>
+    <row r="7" spans="1:4" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
-    </row>
-    <row r="8" spans="1:3" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="B7" s="4"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="16"/>
+    </row>
+    <row r="8" spans="1:4" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
-    </row>
-    <row r="9" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="B8" s="4"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="16"/>
+    </row>
+    <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
-    </row>
-    <row r="10" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="B9" s="4"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="17"/>
+    </row>
+    <row r="10" spans="1:4" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-    </row>
-    <row r="11" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
-    </row>
-    <row r="12" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="B11" s="4"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="15"/>
+    </row>
+    <row r="12" spans="1:4" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
-    </row>
-    <row r="13" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="B12" s="4"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="16"/>
+    </row>
+    <row r="13" spans="1:4" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-    </row>
-    <row r="14" spans="1:3" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="B13" s="4"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="16"/>
+    </row>
+    <row r="14" spans="1:4" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
-    </row>
-    <row r="15" spans="1:3" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+      <c r="B14" s="4"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="16"/>
+    </row>
+    <row r="15" spans="1:4" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="8"/>
-    </row>
-    <row r="16" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="B15" s="4"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="16"/>
+    </row>
+    <row r="16" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="17"/>
     </row>
     <row r="17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -824,7 +890,15 @@
     <row r="21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="18">
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="D4:D9"/>
+    <mergeCell ref="D11:D16"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
@@ -835,12 +909,6 @@
     <mergeCell ref="A10:C10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -850,6 +918,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101002B951BD0CFC9A645B449CE686EDAFDDB" ma:contentTypeVersion="12" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="857378f38fd272a322ae9b6380aabe9f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="2452c156-a001-40ba-a3d4-e0af20e3482c" xmlns:ns4="186c30bb-5787-4afa-bd77-ad454100e62f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2e4fcb4f073038713082677eed289062" ns3:_="" ns4:_="">
     <xsd:import namespace="2452c156-a001-40ba-a3d4-e0af20e3482c"/>
@@ -1064,15 +1141,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1082,6 +1150,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EBBE175F-24AB-4AAA-8D5B-9331EC2F3C4C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB3B0619-A460-48DF-8E1B-720FD50B302A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1100,27 +1176,19 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EBBE175F-24AB-4AAA-8D5B-9331EC2F3C4C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4163CAE1-4AAF-4631-8CF6-9B127B802458}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="2452c156-a001-40ba-a3d4-e0af20e3482c"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="186c30bb-5787-4afa-bd77-ad454100e62f"/>
-    <ds:schemaRef ds:uri="2452c156-a001-40ba-a3d4-e0af20e3482c"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>